--- a/时间管理大师/2022/第二期/2022-晨间日记 -作息第2周.xlsx
+++ b/时间管理大师/2022/第二期/2022-晨间日记 -作息第2周.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22264" windowHeight="12647" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="一天作记录" sheetId="11" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16842" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16845" uniqueCount="459">
   <si>
     <t>为此你做了什么</t>
   </si>
@@ -1856,17 +1856,10 @@
     <t>工作</t>
   </si>
   <si>
-    <t>工作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>类型</t>
   </si>
   <si>
     <t>开始时间</t>
-  </si>
-  <si>
-    <t>结束时间</t>
   </si>
   <si>
     <t>用时（分钟）</t>
@@ -1875,13 +1868,35 @@
     <t>任务记录</t>
   </si>
   <si>
-    <t>反省</t>
+    <t>结束时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>打断</t>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>不暂停</t>
+    <t>一分为二 thing</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一分为二 done</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp做成可选</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>do_clean_sort_link_job</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>思路没有了，不去敲击键盘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> slepp</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2784,9 +2799,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2808,11 +2820,32 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2820,14 +2853,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2865,30 +2904,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2919,28 +2934,28 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3236,21 +3251,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:WRY49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="80.875" customWidth="1"/>
-    <col min="3" max="3" width="78.25" customWidth="1"/>
-    <col min="4" max="4" width="65.5" customWidth="1"/>
-    <col min="5" max="5" width="55.375" customWidth="1"/>
-    <col min="6" max="6" width="54.75" customWidth="1"/>
-    <col min="7" max="7" width="50.625" customWidth="1"/>
+    <col min="2" max="2" width="80.88671875" customWidth="1"/>
+    <col min="3" max="3" width="78.21875" customWidth="1"/>
+    <col min="4" max="4" width="65.44140625" customWidth="1"/>
+    <col min="5" max="5" width="55.33203125" customWidth="1"/>
+    <col min="6" max="6" width="54.77734375" customWidth="1"/>
+    <col min="7" max="7" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16041" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16041" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>367</v>
       </c>
@@ -51375,7 +51390,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="2" spans="1:16041" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16041" x14ac:dyDescent="0.25">
       <c r="A2" s="97"/>
       <c r="B2" s="47" t="s">
         <v>365</v>
@@ -67420,7 +67435,7 @@
       <c r="WRX2" s="70"/>
       <c r="WRY2" s="70"/>
     </row>
-    <row r="3" spans="1:16041" s="51" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16041" s="51" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="97"/>
       <c r="B3" s="71" t="s">
         <v>412</v>
@@ -67453,7 +67468,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:16041" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16041" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="97"/>
       <c r="B4" s="41" t="s">
         <v>414</v>
@@ -67486,7 +67501,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:16041" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16041" ht="30.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="97"/>
       <c r="B5" s="36" t="s">
         <v>417</v>
@@ -67519,7 +67534,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:16041" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16041" ht="40.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="97"/>
       <c r="B6" s="89" t="s">
         <v>415</v>
@@ -67548,7 +67563,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:16041" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16041" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="98" t="s">
         <v>368</v>
       </c>
@@ -67556,7 +67571,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="8" spans="1:16041" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16041" x14ac:dyDescent="0.25">
       <c r="A8" s="98"/>
       <c r="B8" s="36" t="s">
         <v>431</v>
@@ -67565,7 +67580,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="9" spans="1:16041" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16041" ht="19.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="98"/>
       <c r="B9" s="36" t="s">
         <v>432</v>
@@ -67574,7 +67589,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="10" spans="1:16041" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16041" ht="23.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="98"/>
       <c r="B10" s="36" t="s">
         <v>424</v>
@@ -67583,33 +67598,33 @@
         <v>419</v>
       </c>
     </row>
-    <row r="11" spans="1:16041" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16041" x14ac:dyDescent="0.25">
       <c r="A11" s="98"/>
       <c r="B11" s="36" t="s">
         <v>425</v>
       </c>
       <c r="C11" s="86"/>
     </row>
-    <row r="12" spans="1:16041" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16041" x14ac:dyDescent="0.25">
       <c r="A12" s="98"/>
       <c r="B12" s="36" t="s">
         <v>423</v>
       </c>
       <c r="C12" s="86"/>
     </row>
-    <row r="13" spans="1:16041" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16041" x14ac:dyDescent="0.25">
       <c r="A13" s="98"/>
       <c r="B13" s="36" t="s">
         <v>428</v>
       </c>
       <c r="C13" s="86"/>
     </row>
-    <row r="14" spans="1:16041" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16041" x14ac:dyDescent="0.25">
       <c r="A14" s="98"/>
       <c r="B14" s="36"/>
       <c r="C14" s="86"/>
     </row>
-    <row r="15" spans="1:16041" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16041" x14ac:dyDescent="0.25">
       <c r="A15" s="98"/>
       <c r="B15" s="91" t="s">
         <v>420</v>
@@ -67618,19 +67633,19 @@
         <v>419</v>
       </c>
     </row>
-    <row r="16" spans="1:16041" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16041" x14ac:dyDescent="0.25">
       <c r="A16" s="98"/>
       <c r="B16" s="36"/>
       <c r="C16" s="86"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="98"/>
       <c r="B17" s="36" t="s">
         <v>426</v>
       </c>
       <c r="C17" s="86"/>
     </row>
-    <row r="18" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="26.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="98"/>
       <c r="B18" s="36" t="s">
         <v>427</v>
@@ -67639,7 +67654,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="72" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" s="72" customFormat="1" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="98"/>
       <c r="B19" s="83" t="s">
         <v>442</v>
@@ -67648,7 +67663,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="98"/>
       <c r="B20" s="87" t="s">
         <v>438</v>
@@ -67657,7 +67672,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="98"/>
       <c r="B21" s="91" t="s">
         <v>439</v>
@@ -67666,7 +67681,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="98"/>
       <c r="B22" s="91" t="s">
         <v>440</v>
@@ -67675,7 +67690,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="30.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="98"/>
       <c r="B23" s="91" t="s">
         <v>441</v>
@@ -67684,7 +67699,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="30.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="80"/>
       <c r="B24" s="91" t="s">
         <v>401</v>
@@ -67693,13 +67708,13 @@
         <v>402</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="30.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="85"/>
       <c r="B25" s="91" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="33.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="84"/>
       <c r="B26" s="36" t="s">
         <v>435</v>
@@ -67708,7 +67723,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="23.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="38" t="s">
         <v>436</v>
       </c>
@@ -67716,7 +67731,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="34.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="98" t="s">
         <v>375</v>
       </c>
@@ -67727,7 +67742,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="98"/>
       <c r="B29" t="s">
         <v>370</v>
@@ -67736,7 +67751,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="98"/>
       <c r="B30" t="s">
         <v>372</v>
@@ -67745,7 +67760,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="98"/>
       <c r="B31" t="s">
         <v>373</v>
@@ -67754,7 +67769,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="98"/>
       <c r="B32" t="s">
         <v>374</v>
@@ -67763,7 +67778,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="98"/>
       <c r="B33" t="s">
         <v>369</v>
@@ -67772,7 +67787,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="98"/>
       <c r="B34" t="s">
         <v>371</v>
@@ -67781,7 +67796,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="98" t="s">
         <v>377</v>
       </c>
@@ -67789,13 +67804,13 @@
         <v>378</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="98"/>
       <c r="B38" s="75" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="45.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="98"/>
       <c r="B39" s="77" t="s">
         <v>388</v>
@@ -67804,7 +67819,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="45.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="98"/>
       <c r="B40" s="77" t="s">
         <v>443</v>
@@ -67813,7 +67828,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="45.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="98"/>
       <c r="B41" s="77" t="s">
         <v>393</v>
@@ -67822,7 +67837,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="45.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="98"/>
       <c r="B42" s="78" t="s">
         <v>389</v>
@@ -67831,7 +67846,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="45.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="98"/>
       <c r="B43" s="77" t="s">
         <v>390</v>
@@ -67840,7 +67855,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="45.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="98"/>
       <c r="B44" s="79" t="s">
         <v>394</v>
@@ -67849,7 +67864,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="45.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="98"/>
       <c r="B45" s="77" t="s">
         <v>391</v>
@@ -67858,7 +67873,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="45.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="98"/>
       <c r="B46" s="77" t="s">
         <v>392</v>
@@ -67867,7 +67882,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="34.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="98"/>
       <c r="B47" s="77" t="s">
         <v>398</v>
@@ -67876,11 +67891,11 @@
         <v>408</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="98"/>
       <c r="B48" s="77"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="98"/>
       <c r="B49" s="77"/>
     </row>
@@ -67910,12 +67925,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>288</v>
       </c>
@@ -67926,7 +67941,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>290</v>
       </c>
@@ -67946,15 +67961,15 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5" customWidth="1"/>
-    <col min="2" max="2" width="32.125" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="25.625" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>80</v>
       </c>
@@ -67968,21 +67983,21 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="144" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="144"/>
       <c r="C2" s="144"/>
-      <c r="D2" s="145"/>
+      <c r="D2" s="147"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="144"/>
       <c r="B3" s="144"/>
       <c r="C3" s="144"/>
-      <c r="D3" s="145"/>
+      <c r="D3" s="147"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>313</v>
       </c>
@@ -67996,7 +68011,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -68004,21 +68019,21 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="146" t="s">
+    <row r="6" spans="1:4" ht="26.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="152" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="145"/>
+      <c r="B6" s="147"/>
       <c r="C6" s="144"/>
       <c r="D6" s="144"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="146"/>
-      <c r="B7" s="145"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="152"/>
+      <c r="B7" s="147"/>
       <c r="C7" s="144"/>
       <c r="D7" s="144"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
       <c r="B8" s="21" t="s">
         <v>90</v>
@@ -68030,21 +68045,21 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="147" t="s">
+    <row r="9" spans="1:4" ht="26.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="150" t="s">
         <v>315</v>
       </c>
-      <c r="B9" s="145"/>
-      <c r="C9" s="145"/>
-      <c r="D9" s="145"/>
+      <c r="B9" s="147"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="147"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="147"/>
-      <c r="B10" s="145"/>
-      <c r="C10" s="145"/>
-      <c r="D10" s="145"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="150"/>
+      <c r="B10" s="147"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="147"/>
     </row>
-    <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="41.35" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>316</v>
       </c>
@@ -68058,7 +68073,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="41.35" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>95</v>
       </c>
@@ -68072,51 +68087,51 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="148" t="s">
         <v>317</v>
       </c>
-      <c r="B13" s="149" t="s">
+      <c r="B13" s="151" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="150"/>
-      <c r="D13" s="150"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="149"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="148"/>
-      <c r="B14" s="149"/>
-      <c r="C14" s="150"/>
-      <c r="D14" s="150"/>
+      <c r="B14" s="151"/>
+      <c r="C14" s="149"/>
+      <c r="D14" s="149"/>
     </row>
-    <row r="15" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="87.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="144" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="152" t="s">
+      <c r="B15" s="146" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="145"/>
+      <c r="C15" s="147"/>
       <c r="D15" s="144"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="144"/>
-      <c r="B16" s="152"/>
-      <c r="C16" s="145"/>
+      <c r="B16" s="146"/>
+      <c r="C16" s="147"/>
       <c r="D16" s="144"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="148"/>
       <c r="B17" s="148"/>
-      <c r="C17" s="150"/>
+      <c r="C17" s="149"/>
       <c r="D17" s="148"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="148"/>
       <c r="B18" s="148"/>
-      <c r="C18" s="150"/>
+      <c r="C18" s="149"/>
       <c r="D18" s="148"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>102</v>
       </c>
@@ -68130,7 +68145,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="21" t="s">
         <v>106</v>
@@ -68142,94 +68157,110 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="144"/>
-      <c r="B21" s="151" t="s">
+      <c r="B21" s="145" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="151" t="s">
+      <c r="C21" s="145" t="s">
         <v>109</v>
       </c>
       <c r="D21" s="144" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="144"/>
-      <c r="B22" s="151"/>
-      <c r="C22" s="151"/>
+      <c r="B22" s="145"/>
+      <c r="C22" s="145"/>
       <c r="D22" s="144"/>
     </row>
-    <row r="24" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="23.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="23.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="29" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="23.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="29" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="23.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="29" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="23.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="29" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" ht="23.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="29" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" ht="23.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="29" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="30"/>
     </row>
-    <row r="40" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" ht="23.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" ht="23.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" ht="23.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="31" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" ht="23.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" ht="23.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" ht="23.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
         <v>122</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
@@ -68242,22 +68273,6 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -68273,21 +68288,21 @@
       <selection activeCell="G1" sqref="G1:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
     <col min="5" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="11.25" customWidth="1"/>
-    <col min="11" max="11" width="10.375" customWidth="1"/>
-    <col min="12" max="13" width="11.25" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" customWidth="1"/>
+    <col min="12" max="13" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>135</v>
       </c>
@@ -68331,7 +68346,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -68375,7 +68390,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -68419,7 +68434,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -68463,7 +68478,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -68519,82 +68534,82 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.25" customWidth="1"/>
+    <col min="1" max="1" width="38.21875" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="29.625" customWidth="1"/>
-    <col min="4" max="4" width="28.75" customWidth="1"/>
-    <col min="5" max="5" width="22.625" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="28.77734375" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="41.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="108" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="129" t="s">
+      <c r="C1" s="110" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="131" t="s">
+      <c r="D1" s="112" t="s">
         <v>132</v>
       </c>
       <c r="E1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="132"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="113"/>
     </row>
-    <row r="3" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="112" t="s">
+    <row r="3" spans="1:5" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110" t="s">
+      <c r="B3" s="116"/>
+      <c r="C3" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="133" t="s">
+      <c r="D3" s="118" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="114"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="134"/>
+    <row r="4" spans="1:5" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="115"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="119"/>
     </row>
-    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="112" t="s">
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="116" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="114"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
+    <row r="6" spans="1:5" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="115"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
       <c r="D6" s="26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="112" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="114" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="27" t="s">
@@ -68607,8 +68622,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="113"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="120"/>
       <c r="B8" s="27" t="s">
         <v>13</v>
       </c>
@@ -68619,89 +68634,89 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="114"/>
+    <row r="9" spans="1:5" ht="29.45" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="115"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
       <c r="D9" s="26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="112" t="s">
+    <row r="10" spans="1:5" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="110" t="s">
+      <c r="B10" s="116"/>
+      <c r="C10" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="110"/>
+      <c r="D10" s="116"/>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="114"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
+    <row r="11" spans="1:5" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="115"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
     </row>
-    <row r="12" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="112" t="s">
+    <row r="12" spans="1:5" ht="52.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="114" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="115" t="s">
+      <c r="D12" s="123" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="113"/>
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="120"/>
       <c r="B13" s="5" t="s">
         <v>153</v>
       </c>
       <c r="C13" s="27"/>
-      <c r="D13" s="116"/>
+      <c r="D13" s="124"/>
     </row>
-    <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="113"/>
+    <row r="14" spans="1:5" ht="87.65" x14ac:dyDescent="0.25">
+      <c r="A14" s="120"/>
       <c r="B14" s="5"/>
       <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="116"/>
+      <c r="D14" s="124"/>
       <c r="E14">
         <f>B14</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="113"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="120"/>
       <c r="B15" s="5"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="116"/>
+      <c r="D15" s="124"/>
     </row>
-    <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="113"/>
+    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="120"/>
       <c r="B16" s="5"/>
       <c r="C16" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="116"/>
+      <c r="D16" s="124"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="113"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="120"/>
       <c r="B17" s="5"/>
       <c r="C17" s="27"/>
-      <c r="D17" s="116"/>
+      <c r="D17" s="124"/>
     </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="114"/>
+    <row r="18" spans="1:5" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="115"/>
       <c r="B18" s="6"/>
       <c r="C18" s="26"/>
-      <c r="D18" s="117"/>
+      <c r="D18" s="125"/>
     </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>23</v>
       </c>
@@ -68715,101 +68730,1329 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="118" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="121" t="s">
+      <c r="B20" s="129" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="124" t="s">
+      <c r="C20" s="132" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="124" t="s">
+      <c r="D20" s="132" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="119"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="127"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="133"/>
     </row>
-    <row r="22" spans="1:5" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="120"/>
-      <c r="B22" s="123"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="126"/>
+    <row r="22" spans="1:5" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="128"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
     </row>
-    <row r="23" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="112" t="s">
+    <row r="23" spans="1:5" ht="41.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="110" t="s">
+      <c r="B23" s="116" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="110" t="s">
+      <c r="C23" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="110" t="s">
+      <c r="D23" s="116" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="32" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="114"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
+    <row r="24" spans="1:5" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="115"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="117"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>161</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="D12:D18"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.21875" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="53" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="41.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="153" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="112" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="109"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="113"/>
+    </row>
+    <row r="3" spans="1:4" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="114" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="115"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="119"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="115"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="120"/>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="115"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="114" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="116"/>
+      <c r="C10" s="116" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="116"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="115"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+    </row>
+    <row r="12" spans="1:4" ht="52.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="114" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="123" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="120"/>
+      <c r="B13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="124"/>
+    </row>
+    <row r="14" spans="1:4" ht="87.65" x14ac:dyDescent="0.25">
+      <c r="A14" s="120"/>
+      <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="124"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="120"/>
+      <c r="B15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="124"/>
+    </row>
+    <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="120"/>
+      <c r="B16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="124"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="120"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="124"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="115"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="125"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="126" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="129" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="132" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="132" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="127"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="133"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="128"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
+    </row>
+    <row r="23" spans="1:4" ht="41.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="114" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="116"/>
+      <c r="C23" s="116" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="116" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="115"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="117"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D12:D18"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="31.44140625" customWidth="1"/>
+    <col min="8" max="8" width="42" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" s="96"/>
+      <c r="B1" s="96" t="s">
+        <v>452</v>
+      </c>
+      <c r="C1" s="96" t="s">
+        <v>447</v>
+      </c>
+      <c r="D1" s="96" t="s">
+        <v>448</v>
+      </c>
+      <c r="E1" s="96" t="s">
+        <v>451</v>
+      </c>
+      <c r="F1" s="96" t="s">
+        <v>449</v>
+      </c>
+      <c r="G1" s="96" t="s">
+        <v>450</v>
+      </c>
+      <c r="H1" s="96" t="s">
+        <v>453</v>
+      </c>
+      <c r="I1" s="96" t="s">
+        <v>454</v>
+      </c>
+      <c r="J1" s="94"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="95"/>
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="95"/>
+      <c r="AD1" s="95"/>
+      <c r="AE1" s="95"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="92" t="s">
+        <v>446</v>
+      </c>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92" t="s">
+        <v>444</v>
+      </c>
+      <c r="D2" s="93">
+        <v>0.58819444444444446</v>
+      </c>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94" t="s">
+        <v>445</v>
+      </c>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="95"/>
+      <c r="V2" s="95"/>
+      <c r="W2" s="95"/>
+      <c r="X2" s="95"/>
+      <c r="Y2" s="95"/>
+      <c r="Z2" s="95"/>
+      <c r="AA2" s="95"/>
+      <c r="AB2" s="95"/>
+      <c r="AC2" s="95"/>
+      <c r="AD2" s="95"/>
+    </row>
+    <row r="3" spans="1:31" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="69">
+        <v>44830</v>
+      </c>
+      <c r="D3" s="33">
+        <v>0.35833333333333334</v>
+      </c>
+      <c r="G3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="22.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="33">
+        <v>0.40347222222222223</v>
+      </c>
+      <c r="G4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D5" s="33">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="H5" t="s">
+        <v>457</v>
+      </c>
+      <c r="I5" t="s">
+        <v>458</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29.109375" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="6" width="18.88671875" customWidth="1"/>
+    <col min="7" max="7" width="43.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="54.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="99" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="99" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="101" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="29.45" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="106"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="100"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="103" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="99" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="99" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="99" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="104"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="99" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="99" t="s">
+        <v>355</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="100"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="16">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="99" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="99" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="100"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="99" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="99" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="107"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="100"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="3" max="3" width="31.21875" customWidth="1"/>
+    <col min="4" max="4" width="28.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="69">
+        <v>44602</v>
+      </c>
+      <c r="B2" s="33">
+        <v>0.99513888888888891</v>
+      </c>
+      <c r="C2" s="33">
+        <v>0.4055555555555555</v>
+      </c>
+      <c r="D2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="69">
+        <v>44604</v>
+      </c>
+      <c r="B3" s="33">
+        <v>0.99513888888888891</v>
+      </c>
+      <c r="C3" s="33">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="69">
+        <v>44605</v>
+      </c>
+      <c r="B4" s="33">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="C4" s="33">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="69">
+        <v>44606</v>
+      </c>
+      <c r="B5" s="33">
+        <v>0.125</v>
+      </c>
+      <c r="C5" s="33">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="69">
+        <v>44607</v>
+      </c>
+      <c r="B6" s="33">
+        <v>2</v>
+      </c>
+      <c r="C6" s="33">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="69">
+        <v>44608</v>
+      </c>
+      <c r="B7" s="33">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C7" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="D7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="69">
+        <v>44609</v>
+      </c>
+      <c r="B8" s="33">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="C8" s="33">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="69">
+        <v>44610</v>
+      </c>
+      <c r="B9" s="33">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C9" s="33">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D9" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="69">
+        <v>44614</v>
+      </c>
+      <c r="B10" s="33">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C10" s="33">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="69">
+        <v>44614</v>
+      </c>
+      <c r="B11" s="33">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="C11" s="33">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="D11" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="69">
+        <v>44615</v>
+      </c>
+      <c r="B12" s="33">
+        <v>0.125</v>
+      </c>
+      <c r="C12" s="33">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="D12" t="s">
+        <v>430</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="52.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B2" s="82" t="s">
+        <v>404</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E51"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.21875" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="28.77734375" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="41.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" s="108" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="110" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="112" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="109"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="113"/>
+    </row>
+    <row r="3" spans="1:5" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="114" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="115"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="119"/>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="116" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="115"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="120"/>
+      <c r="B8" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="29.45" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="115"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="114" t="s">
+        <v>282</v>
+      </c>
+      <c r="B10" s="116"/>
+      <c r="C10" s="116" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="116"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="115"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+    </row>
+    <row r="12" spans="1:5" ht="52.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="114" t="s">
+        <v>283</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="67" t="s">
+        <v>300</v>
+      </c>
+      <c r="D12" s="123" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="121" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="120"/>
+      <c r="B13" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="66"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="122"/>
+    </row>
+    <row r="14" spans="1:5" ht="87.65" x14ac:dyDescent="0.25">
+      <c r="A14" s="120"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="124"/>
+      <c r="E14" s="122"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="120"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="122"/>
+    </row>
+    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="120"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="124"/>
+      <c r="E16" s="122"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="120"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="122"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="115"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="122"/>
+    </row>
+    <row r="19" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>301</v>
+      </c>
+      <c r="C19" s="64" t="s">
+        <v>302</v>
+      </c>
+      <c r="D19" s="64" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="126" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="129" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="132" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="132" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="127"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="133"/>
+    </row>
+    <row r="22" spans="1:5" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="128"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.05" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="64"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E1"/>
+  <mergeCells count="22">
+    <mergeCell ref="E12:E18"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="D12:D18"/>
@@ -68838,1203 +70081,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="38.25" customWidth="1"/>
-    <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="29.625" customWidth="1"/>
-    <col min="4" max="4" width="53" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="127" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="153" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="131" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="132"/>
-    </row>
-    <row r="3" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="112" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="133" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="114"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="134"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="112" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="110" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="110" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="114"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="112" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="113"/>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="114"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="112" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="110"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="114"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-    </row>
-    <row r="12" spans="1:4" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="112" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="115" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="113"/>
-      <c r="B13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="116"/>
-    </row>
-    <row r="14" spans="1:4" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="113"/>
-      <c r="B14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="116"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="113"/>
-      <c r="B15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="116"/>
-    </row>
-    <row r="16" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="113"/>
-      <c r="B16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="116"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="113"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="116"/>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="114"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="117"/>
-    </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="118" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="121" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="124" t="s">
-        <v>125</v>
-      </c>
-      <c r="D20" s="124" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="119"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
-    </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="120"/>
-      <c r="B22" s="123"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="126"/>
-    </row>
-    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="112" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="110"/>
-      <c r="C23" s="110" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="110" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="114"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A12:A18"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE2"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="9.625" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="26.5" customWidth="1"/>
-    <col min="8" max="9" width="21.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A1" s="96"/>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96" t="s">
-        <v>448</v>
-      </c>
-      <c r="D1" s="96" t="s">
-        <v>449</v>
-      </c>
-      <c r="E1" s="96" t="s">
-        <v>450</v>
-      </c>
-      <c r="F1" s="96" t="s">
-        <v>451</v>
-      </c>
-      <c r="G1" s="96" t="s">
-        <v>452</v>
-      </c>
-      <c r="H1" s="96" t="s">
-        <v>453</v>
-      </c>
-      <c r="I1" s="96" t="s">
-        <v>454</v>
-      </c>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="95"/>
-      <c r="X1" s="95"/>
-      <c r="Y1" s="95"/>
-      <c r="Z1" s="95"/>
-      <c r="AA1" s="95"/>
-      <c r="AB1" s="95"/>
-      <c r="AC1" s="95"/>
-      <c r="AD1" s="95"/>
-      <c r="AE1" s="95"/>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A2" s="92" t="s">
-        <v>446</v>
-      </c>
-      <c r="B2" s="92" t="s">
-        <v>447</v>
-      </c>
-      <c r="C2" s="92" t="s">
-        <v>444</v>
-      </c>
-      <c r="D2" s="93">
-        <v>0.58819444444444446</v>
-      </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94" t="s">
-        <v>445</v>
-      </c>
-      <c r="H2" s="94" t="s">
-        <v>455</v>
-      </c>
-      <c r="I2" s="94"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="95"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="95"/>
-      <c r="X2" s="95"/>
-      <c r="Y2" s="95"/>
-      <c r="Z2" s="95"/>
-      <c r="AA2" s="95"/>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="95"/>
-      <c r="AD2" s="95"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="29.125" customWidth="1"/>
-    <col min="3" max="3" width="28.5" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="6" width="18.875" customWidth="1"/>
-    <col min="7" max="7" width="43.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="99" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="99" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="102" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="107"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="101"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="104" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="99" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="99" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="99" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="105"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="99" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="99" t="s">
-        <v>355</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="101"/>
-      <c r="B7" s="101"/>
-      <c r="C7" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="16">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="99" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="99" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="99" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="99" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="101"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="99" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="99" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="99" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="99" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="99" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="99" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="100"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-    </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="101"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.625" customWidth="1"/>
-    <col min="2" max="2" width="18.25" customWidth="1"/>
-    <col min="3" max="3" width="31.25" customWidth="1"/>
-    <col min="4" max="4" width="28.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C1" t="s">
-        <v>363</v>
-      </c>
-      <c r="D1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="69">
-        <v>44602</v>
-      </c>
-      <c r="B2" s="33">
-        <v>0.99513888888888891</v>
-      </c>
-      <c r="C2" s="33">
-        <v>0.4055555555555555</v>
-      </c>
-      <c r="D2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="69">
-        <v>44604</v>
-      </c>
-      <c r="B3" s="33">
-        <v>0.99513888888888891</v>
-      </c>
-      <c r="C3" s="33">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="69">
-        <v>44605</v>
-      </c>
-      <c r="B4" s="33">
-        <v>0.99305555555555547</v>
-      </c>
-      <c r="C4" s="33">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D4" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="69">
-        <v>44606</v>
-      </c>
-      <c r="B5" s="33">
-        <v>0.125</v>
-      </c>
-      <c r="C5" s="33">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D5" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="69">
-        <v>44607</v>
-      </c>
-      <c r="B6" s="33">
-        <v>2</v>
-      </c>
-      <c r="C6" s="33">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="D6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="69">
-        <v>44608</v>
-      </c>
-      <c r="B7" s="33">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="C7" s="33">
-        <v>0.375</v>
-      </c>
-      <c r="D7" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="69">
-        <v>44609</v>
-      </c>
-      <c r="B8" s="33">
-        <v>0.99930555555555556</v>
-      </c>
-      <c r="C8" s="33">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="69">
-        <v>44610</v>
-      </c>
-      <c r="B9" s="33">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="C9" s="33">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="D9" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="69">
-        <v>44614</v>
-      </c>
-      <c r="B10" s="33">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="C10" s="33">
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="69">
-        <v>44614</v>
-      </c>
-      <c r="B11" s="33">
-        <v>0.99305555555555547</v>
-      </c>
-      <c r="C11" s="33">
-        <v>0.34027777777777773</v>
-      </c>
-      <c r="D11" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="69">
-        <v>44615</v>
-      </c>
-      <c r="B12" s="33">
-        <v>0.125</v>
-      </c>
-      <c r="C12" s="33">
-        <v>0.34027777777777773</v>
-      </c>
-      <c r="D12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="52.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B2" s="82" t="s">
-        <v>404</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E51"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="38.25" customWidth="1"/>
-    <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="29.625" customWidth="1"/>
-    <col min="4" max="4" width="28.75" customWidth="1"/>
-    <col min="5" max="5" width="22.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B1" s="127" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" s="129" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" s="131" t="s">
-        <v>132</v>
-      </c>
-      <c r="E1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="132"/>
-    </row>
-    <row r="3" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="112" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="133" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="114"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="134"/>
-    </row>
-    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="112" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="110" t="s">
-        <v>299</v>
-      </c>
-      <c r="C5" s="110" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="114"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="64" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="112" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="66" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="66" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="66" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="113"/>
-      <c r="B8" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="66" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="114"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="112" t="s">
-        <v>282</v>
-      </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="110"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="114"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-    </row>
-    <row r="12" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="112" t="s">
-        <v>283</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="67" t="s">
-        <v>300</v>
-      </c>
-      <c r="D12" s="115" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="108" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="113"/>
-      <c r="B13" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="109"/>
-    </row>
-    <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="113"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="116"/>
-      <c r="E14" s="109"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="113"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="109"/>
-    </row>
-    <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="113"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="116"/>
-      <c r="E16" s="109"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="113"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="109"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="114"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="109"/>
-    </row>
-    <row r="19" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="64" t="s">
-        <v>301</v>
-      </c>
-      <c r="C19" s="64" t="s">
-        <v>302</v>
-      </c>
-      <c r="D19" s="64" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="118" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="121" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="124" t="s">
-        <v>129</v>
-      </c>
-      <c r="D20" s="124" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="119"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
-    </row>
-    <row r="22" spans="1:5" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="120"/>
-      <c r="B22" s="123"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="126"/>
-    </row>
-    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="64"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>161</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:E1"/>
-  <mergeCells count="22">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E12:E18"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
@@ -70043,18 +70089,18 @@
       <selection activeCell="B16" sqref="B16:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="61" customWidth="1"/>
-    <col min="2" max="4" width="52.5" customWidth="1"/>
-    <col min="5" max="5" width="45.75" customWidth="1"/>
-    <col min="6" max="7" width="50.375" customWidth="1"/>
-    <col min="8" max="8" width="36.375" customWidth="1"/>
-    <col min="9" max="9" width="47.875" customWidth="1"/>
-    <col min="10" max="10" width="27.125" customWidth="1"/>
+    <col min="2" max="4" width="52.44140625" customWidth="1"/>
+    <col min="5" max="5" width="45.77734375" customWidth="1"/>
+    <col min="6" max="7" width="50.33203125" customWidth="1"/>
+    <col min="8" max="8" width="36.33203125" customWidth="1"/>
+    <col min="9" max="9" width="47.88671875" customWidth="1"/>
+    <col min="10" max="10" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="46" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="46" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>266</v>
       </c>
@@ -70086,7 +70132,7 @@
         <v>44424</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>166</v>
       </c>
@@ -70116,7 +70162,7 @@
       </c>
       <c r="J2" s="35"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>190</v>
       </c>
@@ -70148,7 +70194,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="33.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>337</v>
       </c>
@@ -70180,7 +70226,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>349</v>
       </c>
@@ -70212,7 +70258,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="38.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
         <v>338</v>
       </c>
@@ -70244,7 +70290,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="40.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>345</v>
       </c>
@@ -70276,7 +70322,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="59.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="50" t="s">
         <v>339</v>
       </c>
@@ -70308,7 +70354,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="51" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="51" customFormat="1" ht="27.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="51" t="s">
         <v>340</v>
       </c>
@@ -70340,7 +70386,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="25.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>341</v>
       </c>
@@ -70372,7 +70418,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="45.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="51" t="s">
         <v>359</v>
       </c>
@@ -70392,7 +70438,7 @@
       <c r="I11" s="37"/>
       <c r="J11" s="37"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="137" t="s">
         <v>273</v>
       </c>
@@ -70406,7 +70452,7 @@
       <c r="I12" s="37"/>
       <c r="J12" s="37"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="138"/>
       <c r="B13" s="138"/>
       <c r="C13" s="138"/>
@@ -70418,7 +70464,7 @@
       <c r="I13" s="37"/>
       <c r="J13" s="37"/>
     </row>
-    <row r="14" spans="1:10" s="46" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" s="46" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
         <v>167</v>
       </c>
@@ -70448,7 +70494,7 @@
       </c>
       <c r="J14" s="44"/>
     </row>
-    <row r="15" spans="1:10" s="51" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" s="51" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="139" t="s">
         <v>351</v>
       </c>
@@ -70458,7 +70504,7 @@
       <c r="E15" s="34"/>
       <c r="F15" s="68"/>
     </row>
-    <row r="16" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
         <v>348</v>
       </c>
@@ -70490,7 +70536,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
         <v>346</v>
       </c>
@@ -70522,7 +70568,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="30.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
         <v>293</v>
       </c>
@@ -70554,7 +70600,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
         <v>295</v>
       </c>
@@ -70586,7 +70632,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
         <v>191</v>
       </c>
@@ -70618,7 +70664,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="40.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
         <v>192</v>
       </c>
@@ -70646,7 +70692,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="135"/>
       <c r="B22" s="135"/>
       <c r="C22" s="135"/>
@@ -70654,7 +70700,7 @@
       <c r="E22" s="135"/>
       <c r="F22" s="61"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="136"/>
       <c r="B23" s="136"/>
       <c r="C23" s="136"/>
@@ -70662,7 +70708,7 @@
       <c r="E23" s="136"/>
       <c r="F23" s="62"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="58" t="s">
         <v>198</v>
       </c>
@@ -70684,7 +70730,7 @@
       <c r="G24" s="36"/>
       <c r="H24" s="36"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
         <v>199</v>
       </c>
@@ -70706,7 +70752,7 @@
       <c r="G25" s="36"/>
       <c r="H25" s="36"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
         <v>248</v>
       </c>
@@ -70730,7 +70776,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
         <v>247</v>
       </c>
@@ -70754,7 +70800,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
         <v>246</v>
       </c>
@@ -70778,7 +70824,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -70788,7 +70834,7 @@
       <c r="G29" s="36"/>
       <c r="H29" s="36"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -70806,7 +70852,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="58" t="s">
         <v>292</v>
       </c>
@@ -70826,7 +70872,7 @@
       <c r="G31" s="36"/>
       <c r="H31" s="36"/>
     </row>
-    <row r="32" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="34"/>
       <c r="B32" s="34"/>
       <c r="C32" s="34"/>
@@ -70836,7 +70882,7 @@
       <c r="G32" s="34"/>
       <c r="H32" s="34"/>
     </row>
-    <row r="33" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="23.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
         <v>285</v>
       </c>
@@ -70856,7 +70902,7 @@
       <c r="G33" s="36"/>
       <c r="H33" s="36"/>
     </row>
-    <row r="34" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="33.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="36" t="s">
         <v>270</v>
       </c>
@@ -70880,7 +70926,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="36" t="s">
         <v>275</v>
       </c>
@@ -70904,7 +70950,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="25.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
         <v>333</v>
       </c>
@@ -70924,7 +70970,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="63" t="s">
         <v>272</v>
       </c>
@@ -70938,7 +70984,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>280</v>
       </c>
@@ -70946,7 +70992,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="30.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>310</v>
       </c>
@@ -70963,7 +71009,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>309</v>
       </c>
@@ -70997,15 +71043,15 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.125" customWidth="1"/>
-    <col min="3" max="3" width="42.625" customWidth="1"/>
-    <col min="4" max="4" width="29.25" customWidth="1"/>
+    <col min="1" max="1" width="85.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.109375" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>330</v>
       </c>
@@ -71016,7 +71062,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>314</v>
       </c>
@@ -71025,7 +71071,7 @@
       </c>
       <c r="C2" s="36"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
         <v>317</v>
       </c>
@@ -71034,7 +71080,7 @@
       </c>
       <c r="C3" s="36"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>318</v>
       </c>
@@ -71043,7 +71089,7 @@
       </c>
       <c r="C4" s="36"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="142" t="s">
         <v>298</v>
       </c>
@@ -71054,19 +71100,19 @@
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="143"/>
       <c r="B6" s="36" t="s">
         <v>327</v>
       </c>
       <c r="C6" s="36"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="143"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="143" t="s">
         <v>306</v>
       </c>
@@ -71077,14 +71123,14 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="143"/>
       <c r="B9" s="36" t="s">
         <v>328</v>
       </c>
       <c r="C9" s="36"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="143" t="s">
         <v>305</v>
       </c>
@@ -71095,14 +71141,14 @@
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="143"/>
       <c r="B11" s="36" t="s">
         <v>329</v>
       </c>
       <c r="C11" s="36"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="143" t="s">
         <v>304</v>
       </c>
@@ -71113,14 +71159,14 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="143"/>
       <c r="B13" s="36" t="s">
         <v>324</v>
       </c>
       <c r="C13" s="36"/>
     </row>
-    <row r="14" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="23.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>307</v>
       </c>
@@ -71131,7 +71177,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="58" t="s">
         <v>198</v>
       </c>
@@ -71150,7 +71196,7 @@
       <c r="F19" s="36"/>
       <c r="G19" s="36"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
         <v>199</v>
       </c>
@@ -71169,7 +71215,7 @@
       <c r="F20" s="36"/>
       <c r="G20" s="36"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
         <v>248</v>
       </c>
@@ -71190,7 +71236,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
         <v>247</v>
       </c>
@@ -71211,7 +71257,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
         <v>246</v>
       </c>
@@ -71232,7 +71278,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="44"/>
@@ -71241,7 +71287,7 @@
       <c r="F24" s="36"/>
       <c r="G24" s="36"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="44" t="s">
@@ -71258,7 +71304,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="58" t="s">
         <v>292</v>
       </c>
@@ -71275,7 +71321,7 @@
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
     </row>
-    <row r="27" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="34"/>
       <c r="B27" s="34"/>
       <c r="C27" s="34"/>
@@ -71284,7 +71330,7 @@
       <c r="F27" s="34"/>
       <c r="G27" s="34"/>
     </row>
-    <row r="28" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="23.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
         <v>285</v>
       </c>
@@ -71301,7 +71347,7 @@
       <c r="F28" s="36"/>
       <c r="G28" s="36"/>
     </row>
-    <row r="29" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="33.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
         <v>270</v>
       </c>
@@ -71322,7 +71368,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
         <v>275</v>
       </c>
@@ -71343,7 +71389,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="25.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
         <v>333</v>
       </c>
@@ -71362,7 +71408,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="63" t="s">
         <v>272</v>
       </c>
@@ -71373,7 +71419,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>268</v>
       </c>
@@ -71381,7 +71427,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="30.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>309</v>
       </c>
@@ -71395,7 +71441,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>309</v>
       </c>
@@ -71427,16 +71473,16 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="3" max="3" width="19.875" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>206</v>
       </c>
@@ -71456,7 +71502,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="23.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>217</v>
       </c>
@@ -71476,8 +71522,8 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="27.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>223</v>
       </c>
